--- a/Stats/Datasets/BloodPressure.xlsx
+++ b/Stats/Datasets/BloodPressure.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elucid\Desktop\Classes\Stats\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elucid\Desktop\Classes\Repos\Classes\Stats\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653085B9-ABA4-4835-8C6E-B3031594C0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A40D96-B139-4A40-ACB4-0EA7F76DA65B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6DCB598C-E562-44D3-821A-43204BF199E3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>bp</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>90th per</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>IQR</t>
   </si>
 </sst>
 </file>
@@ -150,11 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
   </cellXfs>
@@ -471,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B91B4CE-06EE-45CC-A29C-08E51DD777CD}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,12 +493,12 @@
     <col min="3" max="3" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>140</v>
       </c>
@@ -498,8 +509,15 @@
         <f>MAX(A2:A10)</f>
         <v>175</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2">
+        <f>PERCENTILE(A:A, 0.9)</f>
+        <v>162.19999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>133</v>
       </c>
@@ -510,8 +528,19 @@
         <f>MIN(A2:A10)</f>
         <v>133</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <f>QUARTILE(A2:A10, 1)</f>
+        <v>136</v>
+      </c>
+      <c r="H3">
+        <f>PERCENTILE(A2:A10, 0.25)</f>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>136</v>
       </c>
@@ -522,8 +551,19 @@
         <f>D2-D3</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4">
+        <f>QUARTILE(A2:A10, 3)</f>
+        <v>147</v>
+      </c>
+      <c r="H4">
+        <f>PERCENTILE(A2:A10, 0.75)</f>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>159</v>
       </c>
@@ -534,139 +574,144 @@
         <f>_xlfn.STDEV.S(A2:A10)</f>
         <v>13.765899897936205</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <f>G4-G3</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>139</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>175</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>145</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C12" s="1" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12">
         <v>4.5886332993120682</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C13" s="1" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C14" s="1" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="1" t="e">
+      <c r="D14" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C15" s="1" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15">
         <v>13.765899897936205</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C16" s="1" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>189.5</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>2.0848384911987887</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>1.5769312602192642</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>133</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>175</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>1305</v>
       </c>
     </row>
     <row r="23" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>9</v>
       </c>
     </row>
